--- a/InputData/land/ICoLUPpUA/Impl Cost of Land Use Policies per Unit Area.xlsx
+++ b/InputData/land/ICoLUPpUA/Impl Cost of Land Use Policies per Unit Area.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\India EPS\InputData INDIA FINAL\land\ICoLUPpUA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\land\ICoLUPpUA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2926EE1-0311-48A0-AB09-39F7001A4BE6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="315" windowWidth="18825" windowHeight="6555"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -23,12 +24,38 @@
   <definedNames>
     <definedName name="C_to_CO2">'[1]Conversion Factors'!$A$4</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={7DB96B1E-85C6-4A96-A497-463789D4B939}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{7DB96B1E-85C6-4A96-A497-463789D4B939}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Assumed to be 2012 INR as the timeframe for mission implementation begins in the 5th FYP period i.e. 2012-17</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
   <si>
     <t>ICoLUPpUA Implementation Cost of Land Use Policies per Unit Area</t>
   </si>
@@ -39,9 +66,6 @@
     <t>NATIONAL MISSION FOR GREEN INDIA</t>
   </si>
   <si>
-    <t>http://www.moef.gov.in/sites/default/files/GIM_Mission%20Document-1.pdf</t>
-  </si>
-  <si>
     <t>ANNEX 1</t>
   </si>
   <si>
@@ -150,9 +174,6 @@
     <t>Conversion Factors</t>
   </si>
   <si>
-    <t>exchange rate</t>
-  </si>
-  <si>
     <t>Rs / USD</t>
   </si>
   <si>
@@ -259,12 +280,51 @@
   </si>
   <si>
     <t>Weighted Average</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20190303154131/http://www.moef.gov.in/sites/default/files/GIM_Mission%20Document-1.pdf</t>
+  </si>
+  <si>
+    <t>(Previous link to MoEF site is broken)</t>
+  </si>
+  <si>
+    <t>Currency year conversions</t>
+  </si>
+  <si>
+    <t>1997 to 2012, for U.S. Forest Service (2014) "New Cost Estimates…"</t>
+  </si>
+  <si>
+    <t>USD to INR, Dec 2012 for National Mission for Green India "Estimates for costs by forest type …"</t>
+  </si>
+  <si>
+    <t>See "scaling-factors.xlsx" and "cpi.xlsx" in the InputData folder for source information.</t>
+  </si>
+  <si>
+    <t>exchange rate (Dec 31, 2012)</t>
+  </si>
+  <si>
+    <t>The weighted average costs are taken across all sub-activities for each type of main activity</t>
+  </si>
+  <si>
+    <t>in the Mission document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costs are assumed to be as of 2012, as the Mission implementation timeframe begins with the </t>
+  </si>
+  <si>
+    <t>12th FYP i.e. 2012-17</t>
+  </si>
+  <si>
+    <t>Afforestation, Restoration &amp; Avoided deforestation costs for India are sourced from the Mission document</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,7 +473,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -434,16 +494,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="2"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="4"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Body: normal cell" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6"/>
-    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -513,6 +574,12 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Deepthi Swamy" id="{CFD4C958-E40B-4B68-8166-88220E36F2F0}" userId="Deepthi Swamy" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -591,6 +658,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -626,6 +710,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -800,149 +901,214 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2019-12-02T08:08:09.47" personId="{CFD4C958-E40B-4B68-8166-88220E36F2F0}" id="{7DB96B1E-85C6-4A96-A497-463789D4B939}">
+    <text>Assumed to be 2012 INR as the timeframe for mission implementation begins in the 5th FYP period i.e. 2012-17</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="85.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>2014</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>1990</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
         <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>75</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>54.77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B15" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
@@ -951,7 +1117,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -961,7 +1127,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -969,27 +1135,27 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
         <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>1.5</v>
@@ -1001,14 +1167,14 @@
         <f>(D4*2.47)</f>
         <v>37050</v>
       </c>
-      <c r="F4">
-        <f>E4*0.015</f>
-        <v>555.75</v>
+      <c r="F4" s="4">
+        <f>E4*$B$29</f>
+        <v>676.46521818513781</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>1.8</v>
@@ -1020,14 +1186,14 @@
         <f t="shared" ref="E5:E8" si="0">(D5*2.47)</f>
         <v>39520</v>
       </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F8" si="1">E5*0.015</f>
-        <v>592.79999999999995</v>
+      <c r="F5" s="4">
+        <f t="shared" ref="F5:F8" si="1">E5*$B$29</f>
+        <v>721.56289939748035</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>0.6</v>
@@ -1039,14 +1205,14 @@
         <f t="shared" si="0"/>
         <v>74100</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <f t="shared" si="1"/>
-        <v>1111.5</v>
+        <v>1352.9304363702756</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>0.6</v>
@@ -1058,14 +1224,14 @@
         <f t="shared" si="0"/>
         <v>123500.00000000001</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <f t="shared" si="1"/>
-        <v>1852.5000000000002</v>
+        <v>2254.8840606171261</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>0.4</v>
@@ -1077,47 +1243,47 @@
         <f t="shared" si="0"/>
         <v>86450</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>1296.75</v>
+        <v>1578.4188424319882</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" s="8"/>
       <c r="F9" s="4">
         <f>SUMPRODUCT(F4:F8,C4:C8)/SUM(C4:C8)</f>
-        <v>856.68673469387761</v>
+        <v>1042.7688329302873</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
         <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
       </c>
       <c r="C12">
         <v>0.6</v>
@@ -1129,14 +1295,14 @@
         <f>D12*2.47</f>
         <v>74100</v>
       </c>
-      <c r="F12">
-        <f>E12*0.015</f>
-        <v>1111.5</v>
+      <c r="F12" s="4">
+        <f>E12*$B$29</f>
+        <v>1352.9304363702756</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>0.8</v>
@@ -1148,14 +1314,14 @@
         <f t="shared" ref="E13:E24" si="2">D13*2.47</f>
         <v>123500.00000000001</v>
       </c>
-      <c r="F13">
-        <f t="shared" ref="F13:F24" si="3">E13*0.015</f>
-        <v>1852.5000000000002</v>
+      <c r="F13" s="4">
+        <f t="shared" ref="F13:F17" si="3">E13*$B$29</f>
+        <v>2254.8840606171261</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>0.1</v>
@@ -1167,14 +1333,14 @@
         <f t="shared" si="2"/>
         <v>247000.00000000003</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <f t="shared" si="3"/>
-        <v>3705.0000000000005</v>
+        <v>4509.7681212342522</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>0.1</v>
@@ -1186,14 +1352,14 @@
         <f t="shared" si="2"/>
         <v>172900</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <f t="shared" si="3"/>
-        <v>2593.5</v>
+        <v>3156.8376848639764</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>0.1</v>
@@ -1205,14 +1371,14 @@
         <f t="shared" si="2"/>
         <v>172900</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <f t="shared" si="3"/>
-        <v>2593.5</v>
+        <v>3156.8376848639764</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>0.1</v>
@@ -1224,46 +1390,46 @@
         <f t="shared" si="2"/>
         <v>247000.00000000003</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <f t="shared" si="3"/>
-        <v>3705.0000000000005</v>
+        <v>4509.7681212342522</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18">
+        <v>74</v>
+      </c>
+      <c r="F18" s="4">
         <f>SUMPRODUCT(F13:F17,C13:C17)/SUM(C13:C17)</f>
-        <v>2284.75</v>
+        <v>2781.0236747611216</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>2.2999999999999998</v>
@@ -1275,14 +1441,14 @@
         <f t="shared" si="2"/>
         <v>49400.000000000007</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="3"/>
-        <v>741.00000000000011</v>
+      <c r="F21" s="4">
+        <f>E21*$B$29</f>
+        <v>901.95362424685061</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22">
         <v>0.1</v>
@@ -1294,14 +1460,14 @@
         <f t="shared" si="2"/>
         <v>197600.00000000003</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="3"/>
-        <v>2964.0000000000005</v>
+      <c r="F22" s="4">
+        <f t="shared" ref="F22:F24" si="4">E22*$B$29</f>
+        <v>3607.8144969874024</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>0.6</v>
@@ -1313,14 +1479,14 @@
         <f t="shared" si="2"/>
         <v>172900</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="3"/>
-        <v>2593.5</v>
+      <c r="F23" s="4">
+        <f t="shared" si="4"/>
+        <v>3156.8376848639764</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="8">
         <f>AVERAGE(D21:D23)</f>
@@ -1330,48 +1496,52 @@
         <f t="shared" si="2"/>
         <v>139966.66666666669</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="3"/>
-        <v>2099.5</v>
+      <c r="F24" s="4">
+        <f t="shared" si="4"/>
+        <v>2555.5352686994097</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25">
+        <v>74</v>
+      </c>
+      <c r="F25" s="4">
         <f>SUMPRODUCT(F19:F23,C19:C23)/SUM(C19:C23)</f>
-        <v>1185.6000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+        <v>1443.1257987949609</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="14">
+        <f>1/About!A39</f>
+        <v>1.8258170531312762E-2</v>
+      </c>
+      <c r="C29" t="s">
         <v>39</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1383,26 +1553,26 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3">
         <v>4.0999999999999996</v>
@@ -1417,7 +1587,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="3">
         <v>3.2</v>
@@ -1432,7 +1602,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" s="3">
         <v>3.2</v>
@@ -1447,7 +1617,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="3">
         <v>7.4</v>
@@ -1462,7 +1632,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="3">
         <v>14.5</v>
@@ -1477,7 +1647,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="3">
         <v>14.2</v>
@@ -1492,7 +1662,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="3">
         <v>10.6</v>
@@ -1507,7 +1677,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" s="3">
         <v>9.3000000000000007</v>
@@ -1522,7 +1692,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="3">
         <v>9.1</v>
@@ -1537,7 +1707,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" s="3">
         <v>8</v>
@@ -1552,7 +1722,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1561,15 +1731,16 @@
         <v>3.41</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>5.9981900000000001</v>
+        <f>A15*About!A39</f>
+        <v>186.76570000000001</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1578,13 +1749,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1594,12 +1767,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1607,34 +1780,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4">
         <f>AfforestationRestoration!F9</f>
-        <v>856.68673469387761</v>
+        <v>1042.7688329302873</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4">
         <f>ForestManagement!A16</f>
-        <v>5.9981900000000001</v>
+        <v>186.76570000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <f>AfforestationRestoration!F25</f>
-        <v>1185.6000000000001</v>
+        <v>1443.1257987949609</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1642,11 +1815,11 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <f>AfforestationRestoration!F18</f>
-        <v>2284.75</v>
+        <v>2781.0236747611216</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/land/ICoLUPpUA/Impl Cost of Land Use Policies per Unit Area.xlsx
+++ b/InputData/land/ICoLUPpUA/Impl Cost of Land Use Policies per Unit Area.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\land\ICoLUPpUA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\land\ICoLUPpUA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2926EE1-0311-48A0-AB09-39F7001A4BE6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
   <definedNames>
     <definedName name="C_to_CO2">'[1]Conversion Factors'!$A$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,17 +36,26 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={7DB96B1E-85C6-4A96-A497-463789D4B939}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{7DB96B1E-85C6-4A96-A497-463789D4B939}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Assumed to be 2012 INR as the timeframe for mission implementation begins in the 5th FYP period i.e. 2012-17</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -55,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>ICoLUPpUA Implementation Cost of Land Use Policies per Unit Area</t>
   </si>
@@ -316,12 +324,15 @@
   </si>
   <si>
     <t>Afforestation, Restoration &amp; Avoided deforestation costs for India are sourced from the Mission document</t>
+  </si>
+  <si>
+    <t>1990 to 2012 USD, for U.S. Forest Service (1990) "Costs of Sequestering…"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -497,14 +508,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Body: normal cell" xfId="2"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
+    <cellStyle name="Footnotes: top row" xfId="4"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Parent row" xfId="6"/>
+    <cellStyle name="Table title" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -658,23 +669,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -710,23 +704,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -910,49 +887,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="85.5703125" customWidth="1"/>
+    <col min="2" max="2" width="85.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="7">
         <v>2014</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
         <v>75</v>
       </c>
@@ -960,42 +937,42 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
         <v>1990</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,72 +980,72 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>54.77</v>
       </c>
@@ -1076,7 +1053,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1.4330000000000001</v>
       </c>
@@ -1084,38 +1061,46 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>1.7589999999999999</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B15" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.86328125" customWidth="1"/>
+    <col min="4" max="4" width="23.73046875" customWidth="1"/>
+    <col min="5" max="5" width="17.86328125" customWidth="1"/>
+    <col min="6" max="6" width="21.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -1125,7 +1110,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>34</v>
       </c>
@@ -1133,7 +1118,7 @@
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1153,7 +1138,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -1172,7 +1157,7 @@
         <v>676.46521818513781</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -1191,7 +1176,7 @@
         <v>721.56289939748035</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -1210,7 +1195,7 @@
         <v>1352.9304363702756</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -1229,7 +1214,7 @@
         <v>2254.8840606171261</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -1248,7 +1233,7 @@
         <v>1578.4188424319882</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>74</v>
       </c>
@@ -1258,7 +1243,7 @@
         <v>1042.7688329302873</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1278,7 +1263,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1300,7 +1285,7 @@
         <v>1352.9304363702756</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -1319,7 +1304,7 @@
         <v>2254.8840606171261</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>28</v>
       </c>
@@ -1338,7 +1323,7 @@
         <v>4509.7681212342522</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -1357,7 +1342,7 @@
         <v>3156.8376848639764</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>30</v>
       </c>
@@ -1376,7 +1361,7 @@
         <v>3156.8376848639764</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>31</v>
       </c>
@@ -1395,7 +1380,7 @@
         <v>4509.7681212342522</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>74</v>
       </c>
@@ -1404,7 +1389,7 @@
         <v>2781.0236747611216</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1424,7 +1409,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1446,7 +1431,7 @@
         <v>901.95362424685061</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>42</v>
       </c>
@@ -1465,7 +1450,7 @@
         <v>3607.8144969874024</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -1484,7 +1469,7 @@
         <v>3156.8376848639764</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>35</v>
       </c>
@@ -1501,7 +1486,7 @@
         <v>2555.5352686994097</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>74</v>
       </c>
@@ -1510,14 +1495,14 @@
         <v>1443.1257987949609</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -1536,27 +1521,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+    <col min="1" max="1" width="39.3984375" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.3984375" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>51</v>
       </c>
@@ -1570,7 +1555,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -1585,7 +1570,7 @@
         <v>3.6999999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1600,7 +1585,7 @@
         <v>2.8000000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -1615,7 +1600,7 @@
         <v>2.8000000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -1630,7 +1615,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1645,7 +1630,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1660,7 +1645,7 @@
         <v>4.3999999999999986</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -1675,7 +1660,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1690,7 +1675,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -1705,7 +1690,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -1720,12 +1705,12 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
         <f>AVERAGE(D3:D12)</f>
         <v>3.41</v>
@@ -1734,10 +1719,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
-        <f>A15*About!A39</f>
-        <v>186.76570000000001</v>
+        <f>A15*About!A41</f>
+        <v>5.9981900000000001</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -1749,28 +1734,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1778,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1787,16 +1772,16 @@
         <v>1042.7688329302873</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4">
         <f>ForestManagement!A16</f>
-        <v>186.76570000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.9981900000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1805,7 +1790,7 @@
         <v>1443.1257987949609</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1813,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
